--- a/data/qna/법학전공.xlsx
+++ b/data/qna/법학전공.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,42 +458,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>동의대학교 법학과에 입학하려면 성적이 얼마정도 되어야 할까요?</t>
+          <t>법학전공</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>안녕하십니까, 언제나 너의 곁에 WE-DEU!
-       동의대학교 입학홍보대사 조호준 입니다!
-       동의대학교 2024년도 학생부 교과 성적 반영방법 중 반영학기와 반영과목수에 대해         서 질문을 주셨군요
-       고교 졸업(예정)자를 기준으로 1학년 1학기 ~ 3학년 1학기까지의 성적을 반영합니          다. 
-       또한 한의예과를 제외한 전 모집단위에서 국어, 수학, 영어, 한국사, 사회(역사/           도덕 포함), 과학교과 중 석차등급 상위 12 과목을 반영합니다.
-       궁금하셨던 내용이 조금은 해결이 되었을까요?
-       더 궁금하신 사항은 위듀카페 or 인스타그램 @we_deu_ 카카오톡 오픈채팅으로 문의         주시면 최대한 빠르게 답변드리겠습니다!
-       저희 WE-DEU는 반짝반짝 빛날 질문자님의 미래를 응원하고 있겠습니다!</t>
+          <t>법학과</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>학점 따기 많이 힘들까요?</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>들어와서 공부열심히 하면 학점 좋게 받을수있습니다.
+대학교 공부는 고등학교 공부랑 많이 달라서 겁먹을 필요 없기도 하고 본인이 그냥 열심히하면 됩니다.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>법학과</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>들어와서 공부열심히 하면 학점 좋게 받을수있습니다.
-대학교 공부는 고등학교 공부랑 많이 달라서 겁먹을 필요 없기도 하고 본인이 그냥 열심히하면 됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>법학과</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>동의대식으로 교과내신 3.58정도 나오는데 교과100으로 무난하게 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>언제나 너의 곁에 WE-DEU
  동의대학교 입학홍보대사 손정민입니다!!
@@ -498,95 +509,23 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>장단점</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>남녀 성비</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>법</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>새터 오티</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>동의대 법학과에서 경찰행정 안배우죠??</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>경성대 동의대 법학과</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>저는 경성대를 추천합니다! 저라면 경성대 법학 가요.
-경성대랑 동의대를 다들 비슷한 급으로 보더라구요
-학교 이름만 봤을 때 동급이라면 다른 걸 봐야겠죠
-경성대 인프라가 정말 좋습니다. 
-학교 건물도 일단 법학관, 도서관 기준으로 말씀드리면
-경성대가 훨 낫더라고요! 
-경성대도 경사가 좀 있긴 하지만 충분히 다니기 괜찮고요
-전반적으로 좀 더 낫지 않나 싶습니다!
-개인적인 일로 경성대에 오랜 시간 돌아다녀봐서 둘 다 알아서 드리는 말씀이예용 시설같은 거나 그런거••
-아니면 교수진 살펴보고 고르는 것도 괜찮을 듯 해요
-저 입학하기 전에 학교들 살펴볼 때 교수님들 약력도 훑어보곤 했거든요</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>교과 환산등급 3.62등급 인데</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>합격할 수 있을까요? 예상합격등급이 4등급이더라구요</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE_DEU
 동의대학교 입학홍보대사 오다연입니다💙
@@ -605,13 +544,23 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>법학과</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>법학과는 수능최저 얼마인가요??</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>안녕하십니까? 언제나 너의 곁에 WE DEU!
 동의대학교 입학홍보대사 윤다원입니다.
@@ -627,13 +576,23 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>동의대 법학과 3.83</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>제가 동의대식으로 교과전형으로 내신을 산출하면 3.83인데 법학과 붙을까요?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>안녕하십니까!! 언제나 너의 곁에 WE-DEU 동의대학교 입학홍보대사 김기환입니다:)
        동의대학교 법학과에 관심이 있으시군요!!
@@ -650,25 +609,23 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>노무사가 정말 되고싶은데 도움이 되겠죠?</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>법학과</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>일반고 교과로 작년 법학 등급컷이 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU!
  동의대학교 압학 홍보대사 조채은입니다.
@@ -679,25 +636,45 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>법학과</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>동의대식 3.6이면 법학과 붙을 가능성 있나요..?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>법학재학중인 22학번입니다 3.6이면 충분히 가능성은 있다고 생각됩니다</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>법학과 등급</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>법학과 지원하고 싶은데 등급 컷 얼마나 해요?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU 동의대학교 입학홍보대사 김이경입니다🤍
 작년 입시결과에 대해 질문해주셨는데요!
@@ -714,133 +691,89 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>경찰행정학과에 가는 이유</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>안녕하십니까 ! 언제나 너의 곁에, WE-DEU 동의대학교 입학홍보대사 정재민입니다 :)
-경찰행정학과를 오게 된다면, 경찰공무원 시험을 준비하는데 있어서 공부적인 면과 사회적인 면을 다 챙길 수 있다고 생각합니다 !
-공부는 물론 학과 커리큘럼을 보시면 아시겠지만, 경찰행정학과의 수업 커리큘럼은 시험과목에 대해서, 경찰이라는 직업에 대해서 조금 더 깊게 배울 수 있다고 보시면 될 것 같습니다 :)
-또는 경찰행정학과 경채도 경찰행정학과만의 특별한 장점이라고 볼 수 있을 것 같아요 💁🏻
-사회적인 면은 저만의 생각이지만, 학과에 온 대부분이 경찰행정학과를 오게된 이유가 비슷하기에 비슷한 생각을 가진 사람들과 사회적으로 교류한다는 것이 정말 좋다고 생각합니다 !
-더 자세한 내용을 알아보고 싶으시다면 동의대학교 입학안내 홈페이지에서 기초역량 다듬어dream 프로그램 신청 페이지에서 확인해보시면 좋을 것 같습니다 !
-제 답이 학생분에게 도움이 되었기를 바라며
-또 다른 궁금한 점이 있으시다면, 동의대학교 WE-DEU 인스타그램과 페이스북, 네이버카페로 질문해주시면 더 자세히 답변해드리도록 하겠습니다 🙂
-저희 동의대학교 입학홍보대사 WE-DEU가 항상 응원하겠습니다 💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>기초역량 프로그램</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>안녕하십니까 ! 언제나 너의 곁에, WE-DEU 동의대학교 입학홍보대사 정재민입니다 :)
-기초역량 다듬어 dream (입학전 기초역량증진)
-의 프로그램은 프로그램 이름 그대로, 입학 전 시간을 활용하여 전공 관련 기초과목(영어회화, ppt활용법, Excel활용법)을 보완할 수 있도록 지원하는 프로그램입니다 🙃
-신청방법은 동의대학교 입학안내 홈페이지에서 
-온라인 신청기간 내에 수강을 원하는 과목을 신청하면 됩니다 !
-신청자 중 부산외지역 대상자들은 기숙사 무료제공도 이루어지고 있습니다 🤍
-더 자세한 내용을 알아보고 싶으시다면 동의대학교 입학안내 홈페이지에서 기초역량 다듬어dream 프로그램 신청 페이지에서 확인해보시면 좋을 것 같습니다 !
-제 답이 학생분에게 도움이 되었기를 바라며
-또 다른 궁금한 점이 있으시다면, 동의대학교 WE-DEU 인스타그램과 페이스북, 네이버카페로 질문해주시면 더 자세히 답변해드리도록 하겠습니다 🙂
-저희 동의대학교 입학홍보대사 WE-DEU가 항상 응원하겠습니다 💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>법학과</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>안녕하십니까 ! 언제나 너의 곁에, WE-DEU 동의대학교 입학홍보대사 정재민입니다 :)
-법학과의 졸업 후 진로에는 다양한 방면으로 뻗어나가고 있습니다 !
-전반적인 법률지식을 바탕으로 교수, 판사, 검사, 변호사 등 법률전문직에 종사하거나 공직진출을 위한 관련 법률지식을 중점적으로 습득함으로써 각종 고시를 통해 고급공무원으로의 진출과 공채시험을 통해 법원검찰공무원, 경찰공무원, 일반공무원으로 진출하게 됩니다 🙃
-이 밖에도 법무사, 공인감정사, 토지평가사 등등 다양한 법률관련직종으로 진출할 수 있습니다.
-더 많은 진로에 대해서 자세히 알고 싶으시다면, 동의대학교 법학전공 홈페이지에 접속하여 졸업 후 진로나 최근 3년 취업분야 진출비율을 확인하시는 것도 좋을 것 같습니다 ☺️
-제 답이 학생분에게 도움이 되었기를 바라며
-또 다른 궁금한 점이 있으시다면, 동의대학교 WE-DEU 인스타그램과 페이스북, 네이버카페로 질문해주시면 더 자세히 답변해드리도록 하겠습니다 🙂
-저희 동의대학교 입학홍보대사 WE-DEU가 항상 응원하겠습니다 💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>법학과 법대</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>법대는 아니지만 법대다닌다고 해도 될 것 같아요</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>동의대학교</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>저가 교과 4.9입니다 가능성 있을까요</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>일반 교과 전형으로 넣으면 추합 가능성 있어보여요~</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>동의대학교</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>저가 교과 4.9인데 가능성 있을까요</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>법학진로</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>법학과도 1학년때 경찰학개론 배웁니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>교과성적</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3.8등급인데 합격가능할까요??</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>법학과 4. 초반도 합격하던데 가능할 것 같아요</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>내신4.5등급</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>교과로 법학과 합격할 수 있을까요??ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의곁에 WE-DEU 동의대학교 입학홍보대사 임승현입니다! 
 동의대학교 법학과에 대해 궁금하셨군요
@@ -855,25 +788,24 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>법학과 분위기</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>좋아융 꼰대도 없구 사람도 적어서 서로서로 친하구</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>수시등급 교과</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>딱 5.0 나오는데
+가능성 있을까요? ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 “WE-DEU” 동의대학교 입학홍보대사 김건우입니다. 🤗
 법학과의 수시 교과전형이 궁금하시군요!
@@ -888,63 +820,70 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>동의대 경성대 법학과 붙었는데</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>동의대 법학과가 교수님들이 좋으세요!!</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>정시 45435이렇게 나오는데  가능할까요?</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>추합으로도 가능할까요?</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>더 좋은데 가세용... 그냥 붙을거 같에요</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>정시성적 45434쯤 나오는데 추합 가능성 있을까요?</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>국어 4(높은4) 영어 탐구를 망쳤어요 꼭 오고 싶었는데 가능할까요?</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>법학전공</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>교과4.75 추합 가능성 있을까요?</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>이번에 경쟁률은 낮긴 한데
+가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>교과로는 절대 안되고 학생부로는 가능할수도있겠지만 참고로 제가 4.8이였거든요 면접 말 하나도 안떨고 굉장히 잘했다고 교수님께서 칭찬해주셨는데 예비 16번 떠서 간신히 들어온겁니다 !!</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>법학전공 어떤가요??</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>아뇨 공부 하셔서 최소 동아대 가셔서 동대 로스쿨가세요 부대면 더 좋고 여긴 ㄹㅇ 지잡입니다.</t>
         </is>
       </c>
     </row>
